--- a/DbFolder/ParkingDB_FreeFormat.xlsx
+++ b/DbFolder/ParkingDB_FreeFormat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubRepositories\parkingWPF_project\DbFolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21EBBA6A-1B84-4ED1-BCA7-D34A33081F3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F3A5F8-6EBC-4D56-A295-D09BE863E209}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1621,7 +1621,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1640,13 +1640,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2637,7 +2645,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -2671,10 +2681,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="2">
         <v>0</v>
       </c>
     </row>
@@ -5139,9 +5149,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0"/>
+    <sheetView topLeftCell="A7" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="6" max="6" bestFit="1" width="20" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">

--- a/DbFolder/ParkingDB_FreeFormat.xlsx
+++ b/DbFolder/ParkingDB_FreeFormat.xlsx
@@ -23,13 +23,14 @@
     <sheet name="Парковка на высоте" sheetId="8" r:id="rId8"/>
     <sheet name="Колесный Остров" sheetId="9" r:id="rId9"/>
     <sheet name="Твой Домик" sheetId="10" r:id="rId10"/>
+    <sheet name="Парковка на большой высоте" sheetId="11" r:id="rId14"/>
   </sheets>
   <calcPr calcId="0" fullCalcOnLoad="1" fullPrecision="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="525">
   <si>
     <t>Id</t>
   </si>
@@ -610,7 +611,7 @@
     <t>50338e7a-1839-4746-b476-dad07a049087</t>
   </si>
   <si>
-    <t>Парковка на высоте</t>
+    <t>Парковка на большой высоте</t>
   </si>
   <si>
     <t>Тверская область, город Солнечногорск, наб. Сталина, 42</t>
@@ -1021,6 +1022,9 @@
     <t>734299ee-1cf1-4138-8112-4d49ea1d6aaf</t>
   </si>
   <si>
+    <t>c2c49830-68a9-4c01-bd7d-d6f7bea9cf10</t>
+  </si>
+  <si>
     <t>528a7b0d-42f4-48de-b4e7-991ae9838f8d</t>
   </si>
   <si>
@@ -1583,6 +1587,12 @@
   </si>
   <si>
     <t>335ea5a2-436d-4ff6-8556-fca100072d8c</t>
+  </si>
+  <si>
+    <t>eb33ae18-ac75-4f14-98b9-3ba6accf121d</t>
+  </si>
+  <si>
+    <t>27.01.2025 21:43:37</t>
   </si>
   <si>
     <t>Parking Lot</t>
@@ -2659,30 +2669,30 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
     </row>
     <row r="2">
       <c r="F2" s="2" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="G2" s="2">
         <v>0</v>
@@ -2690,6 +2700,54 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr codeName=""/>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>504</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>505</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>506</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>521</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>510</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>522</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="F2" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <headerFooter/>
 </worksheet>
 </file>
@@ -2780,7 +2838,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D93"/>
+  <dimension ref="A1:D94"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3231,7 +3289,7 @@
         <v>207</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="33">
@@ -4085,6 +4143,20 @@
         <v>210</v>
       </c>
       <c r="D93" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="B94" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="C94" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="D94" s="0" t="s">
         <v>211</v>
       </c>
     </row>
@@ -4118,27 +4190,27 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>37</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>122</v>
@@ -4146,69 +4218,69 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>154</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>104</v>
@@ -4216,41 +4288,41 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>127</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>19</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>66</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D11" s="0" t="s">
         <v>33</v>
@@ -4258,13 +4330,13 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>185</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D12" s="0" t="s">
         <v>122</v>
@@ -4272,41 +4344,41 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>154</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D15" s="0" t="s">
         <v>27</v>
@@ -4314,13 +4386,13 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D16" s="0" t="s">
         <v>140</v>
@@ -4345,36 +4417,36 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F2" s="0">
         <v>0</v>
@@ -4382,19 +4454,19 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F3" s="0">
         <v>1</v>
@@ -4402,19 +4474,19 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F4" s="0">
         <v>2</v>
@@ -4422,19 +4494,19 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>24</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="F5" s="0">
         <v>3</v>
@@ -4442,19 +4514,19 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>30</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F6" s="0">
         <v>4</v>
@@ -4462,19 +4534,19 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F7" s="0">
         <v>5</v>
@@ -4482,19 +4554,19 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>42</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="F8" s="0">
         <v>6</v>
@@ -4502,19 +4574,19 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>48</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="F9" s="0">
         <v>0</v>
@@ -4522,19 +4594,19 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>54</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="F10" s="0">
         <v>1</v>
@@ -4542,19 +4614,19 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>60</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F11" s="0">
         <v>2</v>
@@ -4562,19 +4634,19 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>65</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="F12" s="0">
         <v>3</v>
@@ -4582,19 +4654,19 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>71</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="F13" s="0">
         <v>4</v>
@@ -4602,19 +4674,19 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>77</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F14" s="0">
         <v>5</v>
@@ -4622,19 +4694,19 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>83</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="F15" s="0">
         <v>6</v>
@@ -4642,19 +4714,19 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>89</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="F16" s="0">
         <v>0</v>
@@ -4662,19 +4734,19 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>95</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="F17" s="0">
         <v>1</v>
@@ -4682,19 +4754,19 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>101</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="F18" s="0">
         <v>2</v>
@@ -4702,19 +4774,19 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>107</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F19" s="0">
         <v>3</v>
@@ -4722,19 +4794,19 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>113</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="F20" s="0">
         <v>4</v>
@@ -4742,19 +4814,19 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>119</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="F21" s="0">
         <v>5</v>
@@ -4762,19 +4834,19 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>125</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="F22" s="0">
         <v>6</v>
@@ -4782,19 +4854,19 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>131</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="F23" s="0">
         <v>0</v>
@@ -4802,19 +4874,19 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>137</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="F24" s="0">
         <v>1</v>
@@ -4822,19 +4894,19 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>143</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="F25" s="0">
         <v>2</v>
@@ -4842,19 +4914,19 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>148</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="F26" s="0">
         <v>3</v>
@@ -4862,19 +4934,19 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B27" s="0" t="s">
         <v>153</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="F27" s="0">
         <v>4</v>
@@ -4882,19 +4954,19 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B28" s="0" t="s">
         <v>159</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="F28" s="0">
         <v>5</v>
@@ -4902,19 +4974,19 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B29" s="0" t="s">
         <v>164</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="F29" s="0">
         <v>6</v>
@@ -4922,19 +4994,19 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B30" s="0" t="s">
         <v>168</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="F30" s="0">
         <v>0</v>
@@ -4942,19 +5014,19 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B31" s="0" t="s">
         <v>172</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="F31" s="0">
         <v>1</v>
@@ -4962,19 +5034,19 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B32" s="0" t="s">
         <v>178</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="F32" s="0">
         <v>1</v>
@@ -4982,19 +5054,19 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B33" s="0" t="s">
         <v>178</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="F33" s="0">
         <v>3</v>
@@ -5002,22 +5074,22 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B34" s="0" t="s">
         <v>184</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="F34" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -5028,7 +5100,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5039,45 +5111,45 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>178</v>
@@ -5089,7 +5161,7 @@
         <v>206</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H2" s="0">
         <v>31</v>
@@ -5098,21 +5170,21 @@
         <v>189</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>184</v>
@@ -5124,7 +5196,7 @@
         <v>328</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H3" s="0">
         <v>30</v>
@@ -5133,10 +5205,45 @@
         <v>199</v>
       </c>
       <c r="J3" s="0" t="s">
+        <v>517</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>519</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>515</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>516</v>
       </c>
-      <c r="K3" s="0" t="s">
-        <v>499</v>
+      <c r="D4" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="H4" s="0">
+        <v>31</v>
+      </c>
+      <c r="I4" s="0">
+        <v>213</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>520</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>486</v>
       </c>
     </row>
   </sheetData>
@@ -5161,30 +5268,30 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
     </row>
     <row r="2">
       <c r="F2" s="1" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="G2" s="1">
         <v>0</v>
@@ -5209,30 +5316,30 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
     </row>
     <row r="2">
       <c r="F2" s="1" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="G2" s="1">
         <v>0</v>
@@ -5257,30 +5364,30 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
     </row>
     <row r="2">
       <c r="F2" s="1" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="G2" s="1">
         <v>0</v>

--- a/DbFolder/ParkingDB_FreeFormat.xlsx
+++ b/DbFolder/ParkingDB_FreeFormat.xlsx
@@ -611,7 +611,7 @@
     <t>50338e7a-1839-4746-b476-dad07a049087</t>
   </si>
   <si>
-    <t>Парковка на большой высоте</t>
+    <t>Парковка на высоте</t>
   </si>
   <si>
     <t>Тверская область, город Солнечногорск, наб. Сталина, 42</t>

--- a/DbFolder/ParkingDB_FreeFormat.xlsx
+++ b/DbFolder/ParkingDB_FreeFormat.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="526">
   <si>
     <t>Id</t>
   </si>
@@ -590,6 +590,9 @@
     <t>Анжелика</t>
   </si>
   <si>
+    <t>г. Магнитогорск, ул. Карла Маркса, 162/2</t>
+  </si>
+  <si>
     <t>79514597925</t>
   </si>
   <si>
@@ -1022,7 +1025,7 @@
     <t>734299ee-1cf1-4138-8112-4d49ea1d6aaf</t>
   </si>
   <si>
-    <t>c2c49830-68a9-4c01-bd7d-d6f7bea9cf10</t>
+    <t>e3d91ac9-0ba5-483d-adef-74d40cc0dcec</t>
   </si>
   <si>
     <t>528a7b0d-42f4-48de-b4e7-991ae9838f8d</t>
@@ -1172,7 +1175,7 @@
     <t>205771db-176b-4079-8235-49b097534790</t>
   </si>
   <si>
-    <t>Е 456 КХ 92</t>
+    <t>Е456КХ92</t>
   </si>
   <si>
     <t>Micro</t>
@@ -1184,7 +1187,7 @@
     <t>f59d3fdd-7cc7-4875-b1b8-c7b568bea727</t>
   </si>
   <si>
-    <t>О 056 НМ 43</t>
+    <t>О056НМ43</t>
   </si>
   <si>
     <t>Bentley</t>
@@ -1196,7 +1199,7 @@
     <t>dd9e784e-c37a-4781-8e13-7e2569421720</t>
   </si>
   <si>
-    <t>Х 242 ЕВ 09</t>
+    <t>Х242ЕВ09</t>
   </si>
   <si>
     <t>Maserati</t>
@@ -1208,7 +1211,7 @@
     <t>b70f5a3f-61c4-4461-ae10-04b071559f4a</t>
   </si>
   <si>
-    <t>К 169 МХ 65</t>
+    <t>К169МХ65</t>
   </si>
   <si>
     <t>Hyundai</t>
@@ -1220,7 +1223,7 @@
     <t>4cb4c663-50d7-4973-a222-44e7a5fc3e6d</t>
   </si>
   <si>
-    <t>Р 567 АВ 85</t>
+    <t>Р567АВ85</t>
   </si>
   <si>
     <t>Citroen</t>
@@ -1232,7 +1235,7 @@
     <t>7d80bbae-b546-4b1c-bf3f-833b5452a884</t>
   </si>
   <si>
-    <t>М 286 КО 05</t>
+    <t>М286КО05</t>
   </si>
   <si>
     <t>Tucson</t>
@@ -1241,7 +1244,7 @@
     <t>ab13c5d2-4d8e-41d1-a554-8fe2ab7db098</t>
   </si>
   <si>
-    <t>Т 624 СН 21</t>
+    <t>Т624СН21</t>
   </si>
   <si>
     <t>Toyota</t>
@@ -1253,7 +1256,7 @@
     <t>6db56ce2-078a-411a-a29f-95769c3765d1</t>
   </si>
   <si>
-    <t>Е 388 НМ 33</t>
+    <t>Е388НМ33</t>
   </si>
   <si>
     <t>Subaru</t>
@@ -1265,7 +1268,7 @@
     <t>6f4058d9-8157-4364-a9da-edbb271ba7b7</t>
   </si>
   <si>
-    <t>А 277 ЕУ 23</t>
+    <t>А277ЕУ23</t>
   </si>
   <si>
     <t>Ford</t>
@@ -1277,7 +1280,7 @@
     <t>95182947-67d5-4eaa-8255-38534656e70c</t>
   </si>
   <si>
-    <t>О 791 ЕН 164</t>
+    <t>О791ЕН164</t>
   </si>
   <si>
     <t>Vauxhall</t>
@@ -1289,7 +1292,7 @@
     <t>625e9b95-74c5-47f6-84c0-efd23428c37f</t>
   </si>
   <si>
-    <t>О 315 ХХ 04</t>
+    <t>О315ХХ04</t>
   </si>
   <si>
     <t>Morgan</t>
@@ -1301,7 +1304,7 @@
     <t>865dd671-7cf2-494c-bd2c-e6e77c8ae26e</t>
   </si>
   <si>
-    <t>А 908 МЕ 777</t>
+    <t>А908МЕ777</t>
   </si>
   <si>
     <t>LeBlanc</t>
@@ -1313,7 +1316,7 @@
     <t>9bcff96f-d8b3-4944-86d3-ba1d3db4e39f</t>
   </si>
   <si>
-    <t>У 642 ОМ 27</t>
+    <t>У642ОМ27</t>
   </si>
   <si>
     <t>Plus Six</t>
@@ -1322,7 +1325,7 @@
     <t>de247204-d7d9-4343-a8df-af345da82fa1</t>
   </si>
   <si>
-    <t>О 342 НР 43</t>
+    <t>О342НР43</t>
   </si>
   <si>
     <t>Lotus</t>
@@ -1334,7 +1337,7 @@
     <t>baac1806-5667-4d53-be64-099fcc6f7a1e</t>
   </si>
   <si>
-    <t>К 331 СС 40</t>
+    <t>К331СС40</t>
   </si>
   <si>
     <t>Nissan</t>
@@ -1346,7 +1349,7 @@
     <t>7b753bc7-2886-42d2-ba62-5dd571d78e14</t>
   </si>
   <si>
-    <t>В 852 РВ 14</t>
+    <t>В852РВ14</t>
   </si>
   <si>
     <t>SsangYong</t>
@@ -1358,7 +1361,7 @@
     <t>2a54c2a3-83f5-4575-9a16-73f284b3374f</t>
   </si>
   <si>
-    <t>У 696 ТУ 59</t>
+    <t>У696ТУ59</t>
   </si>
   <si>
     <t>Rolls-Royce</t>
@@ -1370,7 +1373,7 @@
     <t>17395c9c-586b-464c-bcf9-e7461f6ebe08</t>
   </si>
   <si>
-    <t>Т 429 МЕ 87</t>
+    <t>Т429МЕ87</t>
   </si>
   <si>
     <t>Camry</t>
@@ -1379,7 +1382,7 @@
     <t>fdaaa3f4-5c5e-4372-9427-9baade575a33</t>
   </si>
   <si>
-    <t>К 198 УО 43</t>
+    <t>К198УО43</t>
   </si>
   <si>
     <t>Suzuki</t>
@@ -1391,7 +1394,7 @@
     <t>aa364b1e-ef31-41ca-bd40-3f5e591976d8</t>
   </si>
   <si>
-    <t>Р 397 РА 763</t>
+    <t>Р397РА763</t>
   </si>
   <si>
     <t>Lifan</t>
@@ -1403,7 +1406,7 @@
     <t>5d323ced-98d2-4fdf-af59-631cfdc5c19f</t>
   </si>
   <si>
-    <t>А 045 ЕР 17</t>
+    <t>А045ЕР17</t>
   </si>
   <si>
     <t>DS</t>
@@ -1415,7 +1418,7 @@
     <t>e14eb2f1-4dfa-4a7e-bece-d8389159d4e3</t>
   </si>
   <si>
-    <t>С 715 ЕС 142</t>
+    <t>С715ЕС142</t>
   </si>
   <si>
     <t>Mazda</t>
@@ -1427,7 +1430,7 @@
     <t>035c963d-a69b-4139-ba71-89bbb0286843</t>
   </si>
   <si>
-    <t>М 909 НУ 44</t>
+    <t>М909НУ44</t>
   </si>
   <si>
     <t>F-150</t>
@@ -1436,7 +1439,7 @@
     <t>c782f415-5dfa-4914-909a-57f80547172a</t>
   </si>
   <si>
-    <t>Х 264 МЕ 50</t>
+    <t>Х264МЕ50</t>
   </si>
   <si>
     <t>Corsa</t>
@@ -1445,7 +1448,7 @@
     <t>8ddd90f6-57cc-4a54-8bc0-45e28fdd062b</t>
   </si>
   <si>
-    <t>А 060 РЕ 12</t>
+    <t>А060РЕ12</t>
   </si>
   <si>
     <t>Laraki</t>
@@ -1457,7 +1460,7 @@
     <t>1681c7c0-d64e-4383-8d05-be559ffee6a2</t>
   </si>
   <si>
-    <t>Н 309 МА 31</t>
+    <t>Н309МА31</t>
   </si>
   <si>
     <t>Honda</t>
@@ -1469,7 +1472,7 @@
     <t>3de9aaf8-d8dd-44b7-9cf1-4022a8ed1abf</t>
   </si>
   <si>
-    <t>Е 535 ОС 116</t>
+    <t>Е535ОС116</t>
   </si>
   <si>
     <t>Mitsubishi</t>
@@ -1481,7 +1484,7 @@
     <t>c6f96d79-2737-4d81-8493-10e0ebd654c0</t>
   </si>
   <si>
-    <t>Е 778 УЕ 76</t>
+    <t>Е778УЕ76</t>
   </si>
   <si>
     <t>Lancia</t>
@@ -1493,7 +1496,7 @@
     <t>fb1569f5-9baf-472b-bdc5-811071cfd701</t>
   </si>
   <si>
-    <t>К 474 НК 725</t>
+    <t>К474НК725</t>
   </si>
   <si>
     <t>C3</t>
@@ -1502,7 +1505,7 @@
     <t>ba38ca46-50bb-43ca-a070-4c38c84ad16b</t>
   </si>
   <si>
-    <t>Н 562 КС 754</t>
+    <t>Н562КС754</t>
   </si>
   <si>
     <t>McLaren</t>
@@ -1514,7 +1517,7 @@
     <t>7fc22324-d5ee-4a7d-89cf-25d7e114ef80</t>
   </si>
   <si>
-    <t>М 730 ВУ 774</t>
+    <t>M730BY774</t>
   </si>
   <si>
     <t>Lada</t>
@@ -1526,7 +1529,7 @@
     <t>bf989544-ff5f-45d9-8275-73cdd9a25f8a</t>
   </si>
   <si>
-    <t>К 548 СК 174</t>
+    <t>K548CK174</t>
   </si>
   <si>
     <t>2109</t>
@@ -1535,7 +1538,7 @@
     <t>42da13c2-cb72-4538-92c8-9d29ec318bb6</t>
   </si>
   <si>
-    <t>Е 666 КХ 777</t>
+    <t>Е666КХ777</t>
   </si>
   <si>
     <t>BMW</t>
@@ -2639,10 +2642,10 @@
         <v>122</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -2669,30 +2672,30 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="2">
       <c r="F2" s="2" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="G2" s="2">
         <v>0</v>
@@ -2718,30 +2721,30 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="2">
       <c r="F2" s="2" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="G2" s="2">
         <v>0</v>
@@ -2771,63 +2774,63 @@
         <v>4</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -2849,1315 +2852,1315 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C1" s="0" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="0" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="0" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="0" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="0" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="0" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="0" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="0" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="0" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="0" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="0" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="0" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="0" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="0" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="0" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="0" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="0" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="0" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="0" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="0" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="0" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="0" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="0" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="0" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="0" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -4190,27 +4193,27 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>37</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>122</v>
@@ -4218,69 +4221,69 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>154</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>104</v>
@@ -4288,41 +4291,41 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>127</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>19</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>66</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D11" s="0" t="s">
         <v>33</v>
@@ -4330,13 +4333,13 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>185</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D12" s="0" t="s">
         <v>122</v>
@@ -4344,41 +4347,41 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>154</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D15" s="0" t="s">
         <v>27</v>
@@ -4386,13 +4389,13 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D16" s="0" t="s">
         <v>140</v>
@@ -4417,36 +4420,36 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F2" s="0">
         <v>0</v>
@@ -4454,19 +4457,19 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F3" s="0">
         <v>1</v>
@@ -4474,19 +4477,19 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="F4" s="0">
         <v>2</v>
@@ -4494,19 +4497,19 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>24</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F5" s="0">
         <v>3</v>
@@ -4514,19 +4517,19 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>30</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="F6" s="0">
         <v>4</v>
@@ -4534,19 +4537,19 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F7" s="0">
         <v>5</v>
@@ -4554,19 +4557,19 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>42</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F8" s="0">
         <v>6</v>
@@ -4574,19 +4577,19 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>48</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F9" s="0">
         <v>0</v>
@@ -4594,19 +4597,19 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>54</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="F10" s="0">
         <v>1</v>
@@ -4614,19 +4617,19 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>60</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="F11" s="0">
         <v>2</v>
@@ -4634,19 +4637,19 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>65</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="F12" s="0">
         <v>3</v>
@@ -4654,19 +4657,19 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>71</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F13" s="0">
         <v>4</v>
@@ -4674,19 +4677,19 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>77</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="F14" s="0">
         <v>5</v>
@@ -4694,19 +4697,19 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>83</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="F15" s="0">
         <v>6</v>
@@ -4714,19 +4717,19 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>89</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="F16" s="0">
         <v>0</v>
@@ -4734,19 +4737,19 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>95</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="F17" s="0">
         <v>1</v>
@@ -4754,19 +4757,19 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>101</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F18" s="0">
         <v>2</v>
@@ -4774,19 +4777,19 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>107</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F19" s="0">
         <v>3</v>
@@ -4794,19 +4797,19 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>113</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="F20" s="0">
         <v>4</v>
@@ -4814,19 +4817,19 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>119</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="F21" s="0">
         <v>5</v>
@@ -4834,19 +4837,19 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>125</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="F22" s="0">
         <v>6</v>
@@ -4854,19 +4857,19 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>131</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="F23" s="0">
         <v>0</v>
@@ -4874,19 +4877,19 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>137</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="F24" s="0">
         <v>1</v>
@@ -4894,19 +4897,19 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>143</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="F25" s="0">
         <v>2</v>
@@ -4914,19 +4917,19 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>148</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="F26" s="0">
         <v>3</v>
@@ -4934,19 +4937,19 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B27" s="0" t="s">
         <v>153</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="F27" s="0">
         <v>4</v>
@@ -4954,19 +4957,19 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B28" s="0" t="s">
         <v>159</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="F28" s="0">
         <v>5</v>
@@ -4974,19 +4977,19 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B29" s="0" t="s">
         <v>164</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="F29" s="0">
         <v>6</v>
@@ -4994,19 +4997,19 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B30" s="0" t="s">
         <v>168</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="F30" s="0">
         <v>0</v>
@@ -5014,19 +5017,19 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B31" s="0" t="s">
         <v>172</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="F31" s="0">
         <v>1</v>
@@ -5034,19 +5037,19 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B32" s="0" t="s">
         <v>178</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="F32" s="0">
         <v>1</v>
@@ -5054,19 +5057,19 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B33" s="0" t="s">
         <v>178</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="F33" s="0">
         <v>3</v>
@@ -5074,19 +5077,19 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B34" s="0" t="s">
         <v>184</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="F34" s="0">
         <v>1</v>
@@ -5111,57 +5114,57 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>178</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H2" s="0">
         <v>31</v>
@@ -5170,33 +5173,33 @@
         <v>189</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>184</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H3" s="0">
         <v>30</v>
@@ -5205,33 +5208,33 @@
         <v>199</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>168</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H4" s="0">
         <v>31</v>
@@ -5240,10 +5243,10 @@
         <v>213</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
   </sheetData>
@@ -5268,30 +5271,30 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="2">
       <c r="F2" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="G2" s="1">
         <v>0</v>
@@ -5316,30 +5319,30 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="2">
       <c r="F2" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="G2" s="1">
         <v>0</v>
@@ -5364,30 +5367,30 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="2">
       <c r="F2" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="G2" s="1">
         <v>0</v>
